--- a/data/financial_statements/sofp/GNRC.xlsx
+++ b/data/financial_statements/sofp/GNRC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>230000000</v>
+        <v>229911000</v>
       </c>
       <c r="C2">
-        <v>467000000</v>
+        <v>467140000</v>
       </c>
       <c r="D2">
-        <v>206000000</v>
+        <v>206023000</v>
       </c>
       <c r="E2">
-        <v>147000000</v>
+        <v>147339000</v>
       </c>
       <c r="F2">
-        <v>424000000</v>
+        <v>423726000</v>
       </c>
       <c r="G2">
         <v>390086000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>543000000</v>
+        <v>542528000</v>
       </c>
       <c r="C3">
-        <v>692000000</v>
+        <v>692291000</v>
       </c>
       <c r="D3">
-        <v>610000000</v>
+        <v>609870000</v>
       </c>
       <c r="E3">
-        <v>546000000</v>
+        <v>546466000</v>
       </c>
       <c r="F3">
-        <v>511000000</v>
+        <v>510670000</v>
       </c>
       <c r="G3">
         <v>480889000</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1425000000</v>
+        <v>1424691000</v>
       </c>
       <c r="C4">
-        <v>1241000000</v>
+        <v>1240524000</v>
       </c>
       <c r="D4">
-        <v>1237000000</v>
+        <v>1236772000</v>
       </c>
       <c r="E4">
-        <v>1090000000</v>
+        <v>1089705000</v>
       </c>
       <c r="F4">
-        <v>935000000</v>
+        <v>934948000</v>
       </c>
       <c r="G4">
         <v>772861000</v>
@@ -983,8 +1094,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>116000000</v>
@@ -1024,23 +1135,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2313000000</v>
+        <v>2313269000</v>
       </c>
       <c r="C6">
-        <v>2491000000</v>
+        <v>2491311000</v>
       </c>
       <c r="D6">
-        <v>2125000000</v>
+        <v>2125401000</v>
       </c>
       <c r="E6">
-        <v>1848000000</v>
+        <v>1848464000</v>
       </c>
       <c r="F6">
-        <v>1924000000</v>
+        <v>1923572000</v>
       </c>
       <c r="G6">
         <v>1692533000</v>
@@ -1146,23 +1257,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>450000000</v>
+        <v>450133000</v>
       </c>
       <c r="C7">
-        <v>446000000</v>
+        <v>446007000</v>
       </c>
       <c r="D7">
-        <v>443000000</v>
+        <v>443480000</v>
       </c>
       <c r="E7">
-        <v>542000000</v>
+        <v>440852000</v>
       </c>
       <c r="F7">
-        <v>413000000</v>
+        <v>412706000</v>
       </c>
       <c r="G7">
         <v>392518000</v>
@@ -1268,31 +1379,31 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>45000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2293000000</v>
+        <v>2292826000</v>
       </c>
       <c r="C9">
-        <v>2359000000</v>
+        <v>2359337000</v>
       </c>
       <c r="D9">
-        <v>2421000000</v>
+        <v>2420747000</v>
       </c>
       <c r="E9">
-        <v>2451000000</v>
+        <v>2450836000</v>
       </c>
       <c r="F9">
-        <v>1658000000</v>
+        <v>1657520000</v>
       </c>
       <c r="G9">
         <v>1549441000</v>
@@ -1398,8 +1509,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>16273000</v>
@@ -1520,8 +1631,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>128000000</v>
@@ -1642,8 +1753,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2933024000</v>
@@ -1764,23 +1875,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>5246000000</v>
+        <v>5246293000</v>
       </c>
       <c r="C13">
-        <v>5473000000</v>
+        <v>5472951000</v>
       </c>
       <c r="D13">
-        <v>5152000000</v>
+        <v>5151533000</v>
       </c>
       <c r="E13">
-        <v>4878000000</v>
+        <v>4877780000</v>
       </c>
       <c r="F13">
-        <v>4100000000</v>
+        <v>4100430000</v>
       </c>
       <c r="G13">
         <v>3706926000</v>
@@ -1886,23 +1997,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>524000000</v>
+        <v>523552000</v>
       </c>
       <c r="C14">
-        <v>614000000</v>
+        <v>614009000</v>
       </c>
       <c r="D14">
-        <v>697000000</v>
+        <v>697486000</v>
       </c>
       <c r="E14">
-        <v>674000000</v>
+        <v>674208000</v>
       </c>
       <c r="F14">
-        <v>611000000</v>
+        <v>611181000</v>
       </c>
       <c r="G14">
         <v>526375000</v>
@@ -2008,8 +2119,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>54430000</v>
@@ -2130,23 +2241,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>73000000</v>
+        <v>72644000</v>
       </c>
       <c r="C16">
-        <v>81000000</v>
+        <v>81188000</v>
       </c>
       <c r="D16">
-        <v>89000000</v>
+        <v>89274000</v>
       </c>
       <c r="E16">
-        <v>102000000</v>
+        <v>77965000</v>
       </c>
       <c r="F16">
-        <v>66000000</v>
+        <v>66415000</v>
       </c>
       <c r="G16">
         <v>27993000</v>
@@ -2252,8 +2363,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>509000000</v>
@@ -2293,23 +2404,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1105000000</v>
+        <v>1105130000</v>
       </c>
       <c r="C18">
-        <v>1172000000</v>
+        <v>1172176000</v>
       </c>
       <c r="D18">
-        <v>1253000000</v>
+        <v>1253158000</v>
       </c>
       <c r="E18">
-        <v>1156000000</v>
+        <v>1155907000</v>
       </c>
       <c r="F18">
-        <v>1018000000</v>
+        <v>1018014000</v>
       </c>
       <c r="G18">
         <v>836249000</v>
@@ -2415,23 +2526,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1283000000</v>
+        <v>1282856000</v>
       </c>
       <c r="C19">
-        <v>1286000000</v>
+        <v>1286499000</v>
       </c>
       <c r="D19">
-        <v>1003000000</v>
+        <v>1002685000</v>
       </c>
       <c r="E19">
-        <v>982000000</v>
+        <v>902091000</v>
       </c>
       <c r="F19">
-        <v>843000000</v>
+        <v>843426000</v>
       </c>
       <c r="G19">
         <v>842607000</v>
@@ -2537,8 +2648,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>104000000</v>
@@ -2578,23 +2689,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>116000000</v>
+        <v>131978000</v>
       </c>
       <c r="C21">
-        <v>138000000</v>
+        <v>151643000</v>
       </c>
       <c r="D21">
-        <v>152000000</v>
+        <v>163843000</v>
       </c>
       <c r="E21">
-        <v>190000000</v>
+        <v>205964000</v>
       </c>
       <c r="F21">
-        <v>172000000</v>
+        <v>175665000</v>
       </c>
       <c r="G21">
         <v>158522000</v>
@@ -2679,8 +2790,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>86936000</v>
@@ -2765,8 +2876,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>216000000</v>
@@ -2875,8 +2986,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1821558000</v>
@@ -2997,23 +3108,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2840000000</v>
+        <v>2926688000</v>
       </c>
       <c r="C25">
-        <v>2970000000</v>
+        <v>3053189000</v>
       </c>
       <c r="D25">
-        <v>2771000000</v>
+        <v>2842921000</v>
       </c>
       <c r="E25">
-        <v>2606000000</v>
+        <v>2663693000</v>
       </c>
       <c r="F25">
-        <v>2273000000</v>
+        <v>2318153000</v>
       </c>
       <c r="G25">
         <v>2050988000</v>
@@ -3119,8 +3230,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>976001000</v>
@@ -3241,23 +3352,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>1000000</v>
+        <v>728000</v>
       </c>
       <c r="C27">
-        <v>1000000</v>
+        <v>727000</v>
       </c>
       <c r="D27">
-        <v>1000000</v>
+        <v>727000</v>
       </c>
       <c r="E27">
-        <v>1000000</v>
+        <v>725000</v>
       </c>
       <c r="F27">
-        <v>1000000</v>
+        <v>724000</v>
       </c>
       <c r="G27">
         <v>723000</v>
@@ -3363,23 +3474,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>2264000000</v>
+        <v>2263627000</v>
       </c>
       <c r="C28">
-        <v>2211000000</v>
+        <v>2210582000</v>
       </c>
       <c r="D28">
-        <v>2068000000</v>
+        <v>2067868000</v>
       </c>
       <c r="E28">
-        <v>1966000000</v>
+        <v>1965957000</v>
       </c>
       <c r="F28">
-        <v>1834000000</v>
+        <v>1834477000</v>
       </c>
       <c r="G28">
         <v>1710464000</v>
@@ -3485,8 +3596,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>599304000</v>
@@ -3607,8 +3718,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>-202116000</v>
@@ -3729,23 +3840,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>2319000000</v>
+        <v>2319605000</v>
       </c>
       <c r="C31">
-        <v>2419000000</v>
+        <v>2419762000</v>
       </c>
       <c r="D31">
-        <v>2308000000</v>
+        <v>2308612000</v>
       </c>
       <c r="E31">
-        <v>2214000000</v>
+        <v>2214087000</v>
       </c>
       <c r="F31">
-        <v>1782000000</v>
+        <v>1782277000</v>
       </c>
       <c r="G31">
         <v>1655938000</v>
@@ -3851,23 +3962,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>2319000000</v>
+        <v>2319605000</v>
       </c>
       <c r="C32">
-        <v>2419000000</v>
+        <v>2419762000</v>
       </c>
       <c r="D32">
-        <v>2308000000</v>
+        <v>2308612000</v>
       </c>
       <c r="E32">
-        <v>2214000000</v>
+        <v>2214087000</v>
       </c>
       <c r="F32">
-        <v>1782000000</v>
+        <v>1782277000</v>
       </c>
       <c r="G32">
         <v>1655938000</v>
@@ -3973,8 +4084,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>5246293000</v>
@@ -4095,8 +4206,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>63347000</v>
@@ -4217,8 +4328,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>26779100</v>
@@ -4339,23 +4450,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>1126000000</v>
+        <v>1125589000</v>
       </c>
       <c r="C36">
-        <v>900000000</v>
+        <v>900547000</v>
       </c>
       <c r="D36">
-        <v>886000000</v>
+        <v>885936000</v>
       </c>
       <c r="E36">
-        <v>937000000</v>
+        <v>832717000</v>
       </c>
       <c r="F36">
-        <v>485000000</v>
+        <v>486115000</v>
       </c>
       <c r="G36">
         <v>480514000</v>
@@ -4461,23 +4572,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>1356000000</v>
+        <v>1355500000</v>
       </c>
       <c r="C37">
-        <v>1367000000</v>
+        <v>1367687000</v>
       </c>
       <c r="D37">
-        <v>1092000000</v>
+        <v>1091959000</v>
       </c>
       <c r="E37">
-        <v>1084000000</v>
+        <v>980056000</v>
       </c>
       <c r="F37">
-        <v>909000000</v>
+        <v>909841000</v>
       </c>
       <c r="G37">
         <v>870600000</v>
